--- a/NetflixNrt.xlsx
+++ b/NetflixNrt.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\insper\projeto2-cdados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78B38C6-3981-49B6-A1B4-9473E5E44782}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="708" yWindow="240" windowWidth="23040" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="802">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2745,12 +2751,15 @@
   <si>
     <t>nova temporada de grey’s anatomy e htgawm na netflix, meu coração não aguenta</t>
   </si>
+  <si>
+    <t xml:space="preserve">Relevancia </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2802,22 +2811,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2859,7 +2877,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2891,9 +2909,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2925,6 +2961,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3100,4027 +3154,4037 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
-      <c r="A301" t="s">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B301" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1">
-      <c r="A302" t="s">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B302" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
-      <c r="A303" t="s">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B303" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
-      <c r="A304" t="s">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B304" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
-      <c r="A305" t="s">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B305" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
-      <c r="A306" t="s">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B306" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
-      <c r="A307" t="s">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B307" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
-      <c r="A308" t="s">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B308" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
-      <c r="A309" t="s">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B309" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
-      <c r="A310" t="s">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B310" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
-      <c r="A311" t="s">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B311" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
-      <c r="A312" t="s">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B312" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
-      <c r="A313" t="s">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B313" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
-      <c r="A314" t="s">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B314" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
-      <c r="A315" t="s">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B315" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
-      <c r="A316" t="s">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B316" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1">
-      <c r="A317" t="s">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B317" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
-      <c r="A318" t="s">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B318" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
-      <c r="A319" t="s">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B319" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
-      <c r="A320" t="s">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B320" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
-      <c r="A321" t="s">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B321" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
-      <c r="A322" t="s">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B322" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
-      <c r="A323" t="s">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B323" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
-      <c r="A324" t="s">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B324" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1">
-      <c r="A325" t="s">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B325" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
-      <c r="A326" t="s">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B326" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1">
-      <c r="A327" t="s">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B327" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
-      <c r="A328" t="s">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B328" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1">
-      <c r="A329" t="s">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B329" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
-      <c r="A330" t="s">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B330" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1">
-      <c r="A331" t="s">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B331" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
-      <c r="A332" t="s">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B332" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
-      <c r="A333" t="s">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B333" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
-      <c r="A334" t="s">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B334" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
-      <c r="A335" t="s">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B335" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
-      <c r="A336" t="s">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B336" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
-      <c r="A337" t="s">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B337" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1">
-      <c r="A338" t="s">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B338" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
-      <c r="A339" t="s">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B339" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1">
-      <c r="A340" t="s">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B340" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:1">
-      <c r="A341" t="s">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B341" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
-      <c r="A342" t="s">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B342" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
-      <c r="A343" t="s">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B343" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
-      <c r="A344" t="s">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B344" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:1">
-      <c r="A345" t="s">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B345" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
-      <c r="A346" t="s">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B346" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
-      <c r="A347" t="s">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B347" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
-      <c r="A348" t="s">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B348" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
-      <c r="A349" t="s">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B349" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
-      <c r="A350" t="s">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B350" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
-      <c r="A351" t="s">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B351" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
-      <c r="A352" t="s">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B352" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1">
-      <c r="A353" t="s">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B353" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
-      <c r="A354" t="s">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B354" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
-      <c r="A355" t="s">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B355" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
-      <c r="A356" t="s">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B356" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
-      <c r="A357" t="s">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B357" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
-      <c r="A358" t="s">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B358" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
-      <c r="A359" t="s">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B359" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
-      <c r="A360" t="s">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B360" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
-      <c r="A361" t="s">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B361" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
-      <c r="A362" t="s">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B362" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
-      <c r="A363" t="s">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B363" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
-      <c r="A364" t="s">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B364" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
-      <c r="A365" t="s">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B365" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
-      <c r="A366" t="s">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B366" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1">
-      <c r="A367" t="s">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B367" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
-      <c r="A368" t="s">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B368" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
-      <c r="A369" t="s">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B369" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
-      <c r="A370" t="s">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B370" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
-      <c r="A371" t="s">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B371" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
-      <c r="A372" t="s">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B372" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
-      <c r="A373" t="s">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B373" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1">
-      <c r="A374" t="s">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B374" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
-      <c r="A375" t="s">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B375" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:1">
-      <c r="A376" t="s">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B376" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
-      <c r="A377" t="s">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B377" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
-      <c r="A378" t="s">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B378" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
-      <c r="A379" t="s">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B379" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
-      <c r="A380" t="s">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B380" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
-      <c r="A381" t="s">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B381" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
-      <c r="A382" t="s">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B382" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
-      <c r="A383" t="s">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B383" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
-      <c r="A384" t="s">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B384" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B385" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
-      <c r="A386" t="s">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B386" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
-      <c r="A387" t="s">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B387" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:1">
-      <c r="A388" t="s">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B388" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
-      <c r="A389" t="s">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B389" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
-      <c r="A390" t="s">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B390" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
-      <c r="A391" t="s">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B391" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1">
-      <c r="A392" t="s">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B392" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
-      <c r="A393" t="s">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B393" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
-      <c r="A394" t="s">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B394" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
-      <c r="A395" t="s">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B395" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1">
-      <c r="A396" t="s">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B396" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
-      <c r="A397" t="s">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B397" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
-      <c r="A398" t="s">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B398" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
-      <c r="A399" t="s">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B399" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
-      <c r="A400" t="s">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B400" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
-      <c r="A401" t="s">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B401" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1">
-      <c r="A402" t="s">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B402" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1">
-      <c r="A403" t="s">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B403" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1">
-      <c r="A404" t="s">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B404" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1">
-      <c r="A405" t="s">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B405" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1">
-      <c r="A406" t="s">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B406" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:1">
-      <c r="A407" t="s">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B407" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:1">
-      <c r="A408" t="s">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B408" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1">
-      <c r="A409" t="s">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B409" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1">
-      <c r="A410" t="s">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B410" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1">
-      <c r="A411" t="s">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B411" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1">
-      <c r="A412" t="s">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B412" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1">
-      <c r="A413" t="s">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B413" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1">
-      <c r="A414" t="s">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B414" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1">
-      <c r="A415" t="s">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B415" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1">
-      <c r="A416" t="s">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B416" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:1">
-      <c r="A417" t="s">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B417" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1">
-      <c r="A418" t="s">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B418" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:1">
-      <c r="A419" t="s">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B419" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:1">
-      <c r="A420" t="s">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B420" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1">
-      <c r="A421" t="s">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B421" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1">
-      <c r="A422" t="s">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B422" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1">
-      <c r="A423" t="s">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B423" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:1">
-      <c r="A424" t="s">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B424" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:1">
-      <c r="A425" t="s">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B425" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:1">
-      <c r="A426" t="s">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B426" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:1">
-      <c r="A427" t="s">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B427" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:1">
-      <c r="A428" t="s">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B428" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:1">
-      <c r="A429" t="s">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B429" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:1">
-      <c r="A430" t="s">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B430" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:1">
-      <c r="A431" t="s">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B431" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:1">
-      <c r="A432" t="s">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B432" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:1">
-      <c r="A433" t="s">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B433" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:1">
-      <c r="A434" t="s">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B434" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1">
-      <c r="A435" t="s">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B435" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:1">
-      <c r="A436" t="s">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B436" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:1">
-      <c r="A437" t="s">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B437" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:1">
-      <c r="A438" t="s">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B438" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:1">
-      <c r="A439" t="s">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B439" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:1">
-      <c r="A440" t="s">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B440" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1">
-      <c r="A441" t="s">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B441" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1">
-      <c r="A442" t="s">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B442" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:1">
-      <c r="A443" t="s">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B443" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:1">
-      <c r="A444" t="s">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B444" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1">
-      <c r="A445" t="s">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B445" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1">
-      <c r="A446" t="s">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B446" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1">
-      <c r="A447" t="s">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B447" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1">
-      <c r="A448" t="s">
+    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B448" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:1">
-      <c r="A449" t="s">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B449" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
-      <c r="A450" t="s">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B450" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:1">
-      <c r="A451" t="s">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B451" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:1">
-      <c r="A452" t="s">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B452" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:1">
-      <c r="A453" t="s">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B453" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:1">
-      <c r="A454" t="s">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B454" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:1">
-      <c r="A455" t="s">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B455" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:1">
-      <c r="A456" t="s">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B456" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:1">
-      <c r="A457" t="s">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B457" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
-      <c r="A458" t="s">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B458" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:1">
-      <c r="A459" t="s">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B459" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:1">
-      <c r="A460" t="s">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B460" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:1">
-      <c r="A461" t="s">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B461" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:1">
-      <c r="A462" t="s">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B462" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:1">
-      <c r="A463" t="s">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B463" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:1">
-      <c r="A464" t="s">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B464" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:1">
-      <c r="A465" t="s">
+    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B465" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:1">
-      <c r="A466" t="s">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B466" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:1">
-      <c r="A467" t="s">
+    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B467" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:1">
-      <c r="A468" t="s">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B468" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:1">
-      <c r="A469" t="s">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B469" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
-      <c r="A470" t="s">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B470" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:1">
-      <c r="A471" t="s">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B471" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:1">
-      <c r="A472" t="s">
+    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B472" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:1">
-      <c r="A473" t="s">
+    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B473" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:1">
-      <c r="A474" t="s">
+    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B474" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:1">
-      <c r="A475" t="s">
+    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B475" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:1">
-      <c r="A476" t="s">
+    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B476" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
-      <c r="A477" t="s">
+    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B477" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:1">
-      <c r="A478" t="s">
+    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B478" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:1">
-      <c r="A479" t="s">
+    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B479" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:1">
-      <c r="A480" t="s">
+    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B480" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:1">
-      <c r="A481" t="s">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B481" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:1">
-      <c r="A482" t="s">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B482" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:1">
-      <c r="A483" t="s">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B483" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:1">
-      <c r="A484" t="s">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B484" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:1">
-      <c r="A485" t="s">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B485" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:1">
-      <c r="A486" t="s">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B486" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:1">
-      <c r="A487" t="s">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B487" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:1">
-      <c r="A488" t="s">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B488" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:1">
-      <c r="A489" t="s">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B489" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:1">
-      <c r="A490" t="s">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B490" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:1">
-      <c r="A491" t="s">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B491" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:1">
-      <c r="A492" t="s">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B492" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:1">
-      <c r="A493" t="s">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B493" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:1">
-      <c r="A494" t="s">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B494" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:1">
-      <c r="A495" t="s">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B495" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:1">
-      <c r="A496" t="s">
+    <row r="496" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B496" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:1">
-      <c r="A497" t="s">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B497" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:1">
-      <c r="A498" t="s">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B498" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:1">
-      <c r="A499" t="s">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B499" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:1">
-      <c r="A500" t="s">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B500" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1">
-      <c r="A501" t="s">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B501" t="s">
         <v>500</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A301"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>800</v>
       </c>

--- a/NetflixNrt.xlsx
+++ b/NetflixNrt.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\projeto2-cdados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208D1283-609F-46A5-A24F-17262079DCCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="802">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2745,12 +2751,15 @@
   <si>
     <t>nova temporada de grey’s anatomy e htgawm na netflix, meu coração não aguenta</t>
   </si>
+  <si>
+    <t>Relevância</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2760,6 +2769,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2802,22 +2819,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2859,7 +2887,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2891,9 +2919,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2925,6 +2971,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3100,4030 +3164,6481 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="B483" sqref="B172:B483"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="B201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="B211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="B213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="B225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="B240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="B241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
+      <c r="B250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
+      <c r="B252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
+      <c r="B256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
+      <c r="B258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
+      <c r="B264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
+      <c r="B265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
+      <c r="B266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
+      <c r="B267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
+      <c r="B273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
+      <c r="B274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="B275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="B276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
+      <c r="B277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
+      <c r="B278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
+      <c r="B279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
+      <c r="B281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
+      <c r="B282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
+      <c r="B284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="B291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
+      <c r="B294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
+      <c r="B299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1">
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:1">
+      <c r="B302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:1">
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1">
+      <c r="B305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1">
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1">
+      <c r="B307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1">
+      <c r="B308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1">
+      <c r="B309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1">
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1">
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1">
+      <c r="B312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1">
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1">
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1">
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1">
+      <c r="B316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1">
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1">
+      <c r="B318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1">
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1">
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1">
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1">
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1">
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1">
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1">
+      <c r="B325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1">
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1">
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1">
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1">
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1">
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1">
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1">
+      <c r="B332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1">
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1">
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1">
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1">
+      <c r="B336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1">
+      <c r="B337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1">
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1">
+      <c r="B339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1">
+      <c r="B340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1">
+      <c r="B341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1">
+      <c r="B342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1">
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1">
+      <c r="B344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1">
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1">
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1">
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1">
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:1">
+      <c r="B349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1">
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1">
+      <c r="B351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1">
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1">
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1">
+      <c r="B354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1">
+      <c r="B355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1">
+      <c r="B356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1">
+      <c r="B357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1">
+      <c r="B358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1">
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1">
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1">
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1">
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1">
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1">
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1">
+      <c r="B366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1">
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1">
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1">
+      <c r="B369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1">
+      <c r="B370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1">
+      <c r="B371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1">
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1">
+      <c r="B374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1">
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1">
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1">
+      <c r="B377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1">
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1">
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1">
+      <c r="B380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1">
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1">
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1">
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1">
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1">
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1">
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1">
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1">
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1">
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1">
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1">
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1">
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1">
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1">
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1">
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1">
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1">
+      <c r="B397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1">
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1">
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1">
+      <c r="B400" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1">
+      <c r="B401" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1">
+      <c r="B402" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1">
+      <c r="B403" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1">
+      <c r="B404" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1">
+      <c r="B405" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1">
+      <c r="B406" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1">
+      <c r="B407" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1">
+      <c r="B408" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1">
+      <c r="B409" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1">
+      <c r="B410" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1">
+      <c r="B411" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:1">
+      <c r="B412" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:1">
+      <c r="B413" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:1">
+      <c r="B414" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:1">
+      <c r="B415" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1">
+      <c r="B416" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1">
+      <c r="B417" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1">
+      <c r="B418" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1">
+      <c r="B419" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1">
+      <c r="B420" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:1">
+      <c r="B421" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1">
+      <c r="B422" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1">
+      <c r="B423" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1">
+      <c r="B424" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1">
+      <c r="B425" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1">
+      <c r="B426" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1">
+      <c r="B427" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1">
+      <c r="B428" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1">
+      <c r="B429" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1">
+      <c r="B430" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1">
+      <c r="B431" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1">
+      <c r="B432" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1">
+      <c r="B433" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="435" spans="1:1">
+      <c r="B434" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1">
+      <c r="B435" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1">
+      <c r="B436" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1">
+      <c r="B437" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1">
+      <c r="B438" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1">
+      <c r="B439" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1">
+      <c r="B440" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1">
+      <c r="B441" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1">
+      <c r="B442" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1">
+      <c r="B443" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1">
+      <c r="B444" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1">
+      <c r="B445" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1">
+      <c r="B446" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1">
+      <c r="B447" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1">
+      <c r="B448" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1">
+      <c r="B449" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1">
+      <c r="B450" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1">
+      <c r="B451" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:1">
+      <c r="B452" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:1">
+      <c r="B453" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:1">
+      <c r="B454" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:1">
+      <c r="B455" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:1">
+      <c r="B456" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="458" spans="1:1">
+      <c r="B457" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="459" spans="1:1">
+      <c r="B458" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:1">
+      <c r="B459" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="461" spans="1:1">
+      <c r="B460" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:1">
+      <c r="B461" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:1">
+      <c r="B462" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:1">
+      <c r="B463" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:1">
+      <c r="B464" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:1">
+      <c r="B465" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:1">
+      <c r="B466" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:1">
+      <c r="B467" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:1">
+      <c r="B468" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:1">
+      <c r="B469" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:1">
+      <c r="B470" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:1">
+      <c r="B471" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:1">
+      <c r="B472" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1">
+      <c r="B473" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:1">
+      <c r="B474" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:1">
+      <c r="B475" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:1">
+      <c r="B476" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:1">
+      <c r="B477" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:1">
+      <c r="B478" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:1">
+      <c r="B479" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="481" spans="1:1">
+      <c r="B480" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="482" spans="1:1">
+      <c r="B481" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="483" spans="1:1">
+      <c r="B482" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:1">
+      <c r="B483" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:1">
+      <c r="B484" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:1">
+      <c r="B485" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:1">
+      <c r="B486" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="488" spans="1:1">
+      <c r="B487" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:1">
+      <c r="B488" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:1">
+      <c r="B489" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:1">
+      <c r="B490" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="492" spans="1:1">
+      <c r="B491" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:1">
+      <c r="B492" s="4">
+        <v>1</v>
+      </c>
+      <c r="L492" s="3"/>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="494" spans="1:1">
+      <c r="B493" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:1">
+      <c r="B494" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="496" spans="1:1">
+      <c r="B495" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:1">
+      <c r="B496" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="498" spans="1:1">
+      <c r="B497" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="499" spans="1:1">
+      <c r="B498" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="500" spans="1:1">
+      <c r="B499" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="501" spans="1:1">
+      <c r="B500" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>500</v>
       </c>
+      <c r="B501" s="4">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="E307" sqref="E307"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="B163" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="B164" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="B165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="B166" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="B167" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="B168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="B169" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
+      <c r="B170" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
+      <c r="B171" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
+      <c r="B172" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
+      <c r="B173" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
+      <c r="B174" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
+      <c r="B175" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
+      <c r="B176" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
+      <c r="B177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
+      <c r="B178" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
+      <c r="B179" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
+      <c r="B180" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
+      <c r="B181" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
+      <c r="B182" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
+      <c r="B183" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
+      <c r="B184" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
+      <c r="B185" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
+      <c r="B186" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
+      <c r="B187" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
+      <c r="B188" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
+      <c r="B189" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
+      <c r="B190" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
+      <c r="B191" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
+      <c r="B192" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
+      <c r="B193" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
+      <c r="B194" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
+      <c r="B195" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
+      <c r="B196" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
+      <c r="B197" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
+      <c r="B198" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
+      <c r="B199" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
+      <c r="B200" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
+      <c r="B201" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
+      <c r="B202" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
+      <c r="B203" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
+      <c r="B204" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
+      <c r="B205" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
+      <c r="B206" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
+      <c r="B207" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
+      <c r="B208" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="210" spans="1:1">
+      <c r="B209" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="211" spans="1:1">
+      <c r="B210" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="212" spans="1:1">
+      <c r="B211" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="213" spans="1:1">
+      <c r="B212" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="214" spans="1:1">
+      <c r="B213" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="215" spans="1:1">
+      <c r="B214" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="216" spans="1:1">
+      <c r="B215" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="217" spans="1:1">
+      <c r="B216" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="B217" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="219" spans="1:1">
+      <c r="B218" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
+      <c r="B219" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="221" spans="1:1">
+      <c r="B220" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="222" spans="1:1">
+      <c r="B221" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="223" spans="1:1">
+      <c r="B222" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="224" spans="1:1">
+      <c r="B223" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="225" spans="1:1">
+      <c r="B224" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="226" spans="1:1">
+      <c r="B225" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="227" spans="1:1">
+      <c r="B226" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="228" spans="1:1">
+      <c r="B227" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="229" spans="1:1">
+      <c r="B228" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="230" spans="1:1">
+      <c r="B229" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="231" spans="1:1">
+      <c r="B230" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="232" spans="1:1">
+      <c r="B231" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="233" spans="1:1">
+      <c r="B232" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="234" spans="1:1">
+      <c r="B233" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="235" spans="1:1">
+      <c r="B234" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="236" spans="1:1">
+      <c r="B235" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="237" spans="1:1">
+      <c r="B236" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="238" spans="1:1">
+      <c r="B237" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="239" spans="1:1">
+      <c r="B238" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="240" spans="1:1">
+      <c r="B239" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="241" spans="1:1">
+      <c r="B240" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="242" spans="1:1">
+      <c r="B241" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="243" spans="1:1">
+      <c r="B242" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="244" spans="1:1">
+      <c r="B243" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="245" spans="1:1">
+      <c r="B244" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="246" spans="1:1">
+      <c r="B245" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="247" spans="1:1">
+      <c r="B246" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="248" spans="1:1">
+      <c r="B247" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="249" spans="1:1">
+      <c r="B248" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="250" spans="1:1">
+      <c r="B249" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="251" spans="1:1">
+      <c r="B250" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="252" spans="1:1">
+      <c r="B251" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="253" spans="1:1">
+      <c r="B252" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="254" spans="1:1">
+      <c r="B253" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="255" spans="1:1">
+      <c r="B254" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="256" spans="1:1">
+      <c r="B255" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="257" spans="1:1">
+      <c r="B256" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="258" spans="1:1">
+      <c r="B257" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="259" spans="1:1">
+      <c r="B258" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="260" spans="1:1">
+      <c r="B259" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="261" spans="1:1">
+      <c r="B260" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="262" spans="1:1">
+      <c r="B261" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="263" spans="1:1">
+      <c r="B262" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="264" spans="1:1">
+      <c r="B263" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="265" spans="1:1">
+      <c r="B264" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="266" spans="1:1">
+      <c r="B265" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="267" spans="1:1">
+      <c r="B266" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="268" spans="1:1">
+      <c r="B267" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="269" spans="1:1">
+      <c r="B268" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="270" spans="1:1">
+      <c r="B269" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="271" spans="1:1">
+      <c r="B270" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="272" spans="1:1">
+      <c r="B271" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="273" spans="1:1">
+      <c r="B272" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="274" spans="1:1">
+      <c r="B273" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="275" spans="1:1">
+      <c r="B274" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="276" spans="1:1">
+      <c r="B275" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="277" spans="1:1">
+      <c r="B276" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="278" spans="1:1">
+      <c r="B277" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="279" spans="1:1">
+      <c r="B278" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="280" spans="1:1">
+      <c r="B279" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="281" spans="1:1">
+      <c r="B280" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="282" spans="1:1">
+      <c r="B281" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="283" spans="1:1">
+      <c r="B282" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="284" spans="1:1">
+      <c r="B283" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="285" spans="1:1">
+      <c r="B284" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="286" spans="1:1">
+      <c r="B285" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="287" spans="1:1">
+      <c r="B286" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="288" spans="1:1">
+      <c r="B287" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="289" spans="1:1">
+      <c r="B288" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="290" spans="1:1">
+      <c r="B289" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="291" spans="1:1">
+      <c r="B290" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="B291" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="293" spans="1:1">
+      <c r="B292" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="294" spans="1:1">
+      <c r="B293" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="295" spans="1:1">
+      <c r="B294" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="296" spans="1:1">
+      <c r="B295" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="297" spans="1:1">
+      <c r="B296" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="298" spans="1:1">
+      <c r="B297" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="299" spans="1:1">
+      <c r="B298" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="300" spans="1:1">
+      <c r="B299" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="301" spans="1:1">
+      <c r="B300" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>800</v>
       </c>
+      <c r="B301" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B302" s="4"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B303" s="4"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B304" s="4"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" s="4"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" s="4"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" s="4"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" s="4"/>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" s="4"/>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" s="4"/>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" s="4"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" s="4"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NetflixNrt.xlsx
+++ b/NetflixNrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\projeto2-cdados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\insper\projeto2-cdados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208D1283-609F-46A5-A24F-17262079DCCF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ED44A1-B2A5-4CE2-B9A0-BE214437269F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3120" yWindow="2316" windowWidth="23040" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="803">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2753,6 +2753,9 @@
   </si>
   <si>
     <t>Relevância</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3167,17 +3170,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L501"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="B483" sqref="B172:B483"/>
+    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="D447" sqref="D447"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3193,7 +3196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3201,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3209,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3225,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3233,7 +3236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3241,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3249,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3257,7 +3260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3281,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3297,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3305,7 +3308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3313,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3321,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3329,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3337,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3345,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3361,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3377,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3401,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3409,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3417,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3425,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3441,7 +3444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3449,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3465,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3473,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3481,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3489,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3497,7 +3500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3505,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3513,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3521,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3529,7 +3532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3537,7 +3540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3545,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3561,7 +3564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3569,7 +3572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3577,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3585,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3593,7 +3596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3601,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3609,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3633,7 +3636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3641,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3649,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3657,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3673,7 +3676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3681,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3713,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3721,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3729,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3737,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3753,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3777,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3785,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3793,7 +3796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3801,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3809,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3817,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3825,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3833,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3849,7 +3852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3857,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3873,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3881,7 +3884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3889,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3897,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3913,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3929,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3937,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3945,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3953,7 +3956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3961,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3985,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -4001,7 +4004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4009,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -4017,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -4025,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -4033,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -4041,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -4049,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -4057,7 +4060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4065,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -4073,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -4081,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -4089,7 +4092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -4097,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -4121,7 +4124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -4137,7 +4140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -4145,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -4153,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -4161,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4169,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -4177,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -4185,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -4193,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -4201,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -4209,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -4217,7 +4220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -4233,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4241,7 +4244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4249,7 +4252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -4257,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -4265,7 +4268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -4273,7 +4276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -4281,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -4297,7 +4300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -4305,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -4313,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -4329,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -4337,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -4345,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -4353,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -4369,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -4385,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -4409,7 +4412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4417,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4425,7 +4428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4433,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4441,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4457,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4465,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4473,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4481,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4489,7 +4492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4513,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4521,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4529,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4537,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4545,7 +4548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4553,7 +4556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4561,7 +4564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4569,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4577,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4585,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4593,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -4601,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4609,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4617,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4625,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4633,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -4641,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -4649,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -4657,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -4665,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -4673,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -4681,7 +4684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -4689,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -4697,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -4705,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -4713,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -4721,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -4729,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -4737,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -4745,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -4753,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -4769,7 +4772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -4777,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -4785,7 +4788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -4793,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -4801,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -4809,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -4817,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -4825,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -4833,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -4841,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -4849,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -4857,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -4865,7 +4868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -4873,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -4881,7 +4884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -4897,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -4913,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -4921,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -4929,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -4937,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -4945,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -4953,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -4961,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -4969,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -4977,7 +4980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -4985,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -5001,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -5009,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -5017,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -5025,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -5033,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -5041,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -5049,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -5057,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -5065,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -5073,7 +5076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -5081,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -5089,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -5097,7 +5100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -5105,7 +5108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -5113,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -5121,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -5129,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -5137,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -5145,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -5153,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -5161,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -5169,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -5177,7 +5180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -5185,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -5193,7 +5196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -5201,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -5209,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -5217,7 +5220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -5225,7 +5228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -5233,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -5241,7 +5244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -5249,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -5257,7 +5260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -5265,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -5281,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -5289,7 +5292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -5305,7 +5308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -5313,7 +5316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -5321,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -5345,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -5353,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -5361,7 +5364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -5369,7 +5372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -5385,7 +5388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -5393,7 +5396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -5409,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -5417,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -5425,7 +5428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -5441,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -5449,7 +5452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -5457,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -5465,7 +5468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -5473,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -5481,7 +5484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -5497,7 +5500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -5505,7 +5508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -5513,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -5521,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -5529,7 +5532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -5537,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -5545,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -5553,7 +5556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -5561,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -5569,7 +5572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -5585,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -5593,7 +5596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -5601,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -5609,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -5617,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -5625,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -5633,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -5641,7 +5644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -5649,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -5657,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -5665,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -5673,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -5681,7 +5684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -5689,7 +5692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -5697,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -5705,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -5721,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -5737,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -5753,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -5761,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -5769,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -5777,7 +5780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -5785,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -5809,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -5817,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -5825,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -5833,7 +5836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -5841,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -5849,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -5865,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -5873,7 +5876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -5889,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -5897,7 +5900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -5905,7 +5908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -5913,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -5921,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -5929,7 +5932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -5937,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -5945,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -5953,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -5961,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -5969,7 +5972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -5977,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -6001,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -6017,7 +6020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -6025,7 +6028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -6041,7 +6044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -6049,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -6057,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -6065,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -6081,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -6089,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -6097,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -6105,7 +6108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -6113,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -6121,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -6129,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -6137,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -6145,7 +6148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -6161,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -6177,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -6185,7 +6188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -6193,7 +6196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -6201,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -6209,7 +6212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -6217,7 +6220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -6225,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -6233,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -6241,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -6249,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -6265,7 +6268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -6273,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -6281,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -6289,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -6297,7 +6300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -6305,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -6313,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -6321,7 +6324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -6329,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -6337,7 +6340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -6345,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -6353,7 +6356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -6361,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -6369,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -6385,7 +6388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -6393,7 +6396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -6401,7 +6404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -6417,7 +6420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -6425,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -6433,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -6441,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -6449,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -6457,7 +6460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -6465,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -6473,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -6481,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -6489,7 +6492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -6497,7 +6500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -6505,7 +6508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -6513,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -6521,7 +6524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -6537,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -6545,7 +6548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -6553,7 +6556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -6561,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -6569,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -6577,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -6585,7 +6588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -6593,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -6601,7 +6604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -6609,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -6617,7 +6620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -6625,7 +6628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -6633,7 +6636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -6641,7 +6644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -6649,7 +6652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -6657,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -6665,7 +6668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -6673,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -6681,7 +6684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -6689,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -6697,7 +6700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -6705,7 +6708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -6713,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -6721,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -6729,7 +6732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -6737,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -6745,15 +6748,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>446</v>
       </c>
       <c r="B447" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D447" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -6761,7 +6767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -6769,7 +6775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -6777,7 +6783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -6785,7 +6791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>451</v>
       </c>
@@ -6793,7 +6799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>452</v>
       </c>
@@ -6801,7 +6807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>453</v>
       </c>
@@ -6809,7 +6815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>454</v>
       </c>
@@ -6817,7 +6823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>455</v>
       </c>
@@ -6825,7 +6831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>456</v>
       </c>
@@ -6833,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>457</v>
       </c>
@@ -6841,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>458</v>
       </c>
@@ -6849,7 +6855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>459</v>
       </c>
@@ -6857,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>460</v>
       </c>
@@ -6865,7 +6871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>461</v>
       </c>
@@ -6873,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>462</v>
       </c>
@@ -6881,7 +6887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>463</v>
       </c>
@@ -6889,7 +6895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>464</v>
       </c>
@@ -6897,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>465</v>
       </c>
@@ -6905,7 +6911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>466</v>
       </c>
@@ -6913,7 +6919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>467</v>
       </c>
@@ -6921,7 +6927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>468</v>
       </c>
@@ -6929,7 +6935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>469</v>
       </c>
@@ -6937,7 +6943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>470</v>
       </c>
@@ -6945,7 +6951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>471</v>
       </c>
@@ -6953,7 +6959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>472</v>
       </c>
@@ -6961,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>473</v>
       </c>
@@ -6969,7 +6975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>474</v>
       </c>
@@ -6977,7 +6983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>475</v>
       </c>
@@ -6985,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>476</v>
       </c>
@@ -6993,7 +6999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>477</v>
       </c>
@@ -7001,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>478</v>
       </c>
@@ -7009,7 +7015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>479</v>
       </c>
@@ -7017,7 +7023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>480</v>
       </c>
@@ -7025,7 +7031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -7033,7 +7039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>482</v>
       </c>
@@ -7041,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>483</v>
       </c>
@@ -7049,7 +7055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>484</v>
       </c>
@@ -7057,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>485</v>
       </c>
@@ -7065,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>486</v>
       </c>
@@ -7073,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>487</v>
       </c>
@@ -7081,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>488</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>489</v>
       </c>
@@ -7097,7 +7103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>490</v>
       </c>
@@ -7105,7 +7111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>491</v>
       </c>
@@ -7114,7 +7120,7 @@
       </c>
       <c r="L492" s="3"/>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -7122,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>493</v>
       </c>
@@ -7130,7 +7136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>494</v>
       </c>
@@ -7138,7 +7144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>495</v>
       </c>
@@ -7146,7 +7152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>496</v>
       </c>
@@ -7154,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>497</v>
       </c>
@@ -7162,7 +7168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>498</v>
       </c>
@@ -7170,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>499</v>
       </c>
@@ -7178,7 +7184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>500</v>
       </c>
@@ -7196,18 +7202,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+    <sheetView topLeftCell="A295" workbookViewId="0">
       <selection activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>502</v>
       </c>
@@ -7215,7 +7221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>503</v>
       </c>
@@ -7223,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>504</v>
       </c>
@@ -7231,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>505</v>
       </c>
@@ -7239,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>506</v>
       </c>
@@ -7247,7 +7253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>507</v>
       </c>
@@ -7255,7 +7261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>508</v>
       </c>
@@ -7263,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>509</v>
       </c>
@@ -7271,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>510</v>
       </c>
@@ -7279,7 +7285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>511</v>
       </c>
@@ -7287,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>512</v>
       </c>
@@ -7295,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -7303,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>514</v>
       </c>
@@ -7311,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>515</v>
       </c>
@@ -7319,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>516</v>
       </c>
@@ -7327,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>517</v>
       </c>
@@ -7335,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>518</v>
       </c>
@@ -7343,7 +7349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>519</v>
       </c>
@@ -7351,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>520</v>
       </c>
@@ -7359,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>521</v>
       </c>
@@ -7367,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>522</v>
       </c>
@@ -7375,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>523</v>
       </c>
@@ -7383,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>524</v>
       </c>
@@ -7391,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>525</v>
       </c>
@@ -7399,7 +7405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>526</v>
       </c>
@@ -7407,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>527</v>
       </c>
@@ -7415,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>528</v>
       </c>
@@ -7423,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>529</v>
       </c>
@@ -7431,7 +7437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>530</v>
       </c>
@@ -7439,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>531</v>
       </c>
@@ -7447,7 +7453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>532</v>
       </c>
@@ -7455,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>533</v>
       </c>
@@ -7463,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>534</v>
       </c>
@@ -7471,7 +7477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>535</v>
       </c>
@@ -7479,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>536</v>
       </c>
@@ -7487,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>537</v>
       </c>
@@ -7495,7 +7501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>538</v>
       </c>
@@ -7503,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>539</v>
       </c>
@@ -7511,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>540</v>
       </c>
@@ -7519,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>541</v>
       </c>
@@ -7527,7 +7533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>542</v>
       </c>
@@ -7535,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>543</v>
       </c>
@@ -7543,7 +7549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>544</v>
       </c>
@@ -7551,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>545</v>
       </c>
@@ -7559,7 +7565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>546</v>
       </c>
@@ -7567,7 +7573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>547</v>
       </c>
@@ -7575,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>548</v>
       </c>
@@ -7583,7 +7589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>549</v>
       </c>
@@ -7591,7 +7597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>550</v>
       </c>
@@ -7599,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>551</v>
       </c>
@@ -7607,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>552</v>
       </c>
@@ -7615,7 +7621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>553</v>
       </c>
@@ -7623,7 +7629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>554</v>
       </c>
@@ -7631,7 +7637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>555</v>
       </c>
@@ -7639,7 +7645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>556</v>
       </c>
@@ -7647,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>557</v>
       </c>
@@ -7655,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>558</v>
       </c>
@@ -7663,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>559</v>
       </c>
@@ -7671,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>560</v>
       </c>
@@ -7679,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>561</v>
       </c>
@@ -7687,7 +7693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>562</v>
       </c>
@@ -7695,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>563</v>
       </c>
@@ -7703,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>564</v>
       </c>
@@ -7711,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>565</v>
       </c>
@@ -7719,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>566</v>
       </c>
@@ -7727,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>567</v>
       </c>
@@ -7735,7 +7741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>568</v>
       </c>
@@ -7743,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>569</v>
       </c>
@@ -7751,7 +7757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>570</v>
       </c>
@@ -7759,7 +7765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>571</v>
       </c>
@@ -7767,7 +7773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>572</v>
       </c>
@@ -7775,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>573</v>
       </c>
@@ -7783,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>574</v>
       </c>
@@ -7791,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>575</v>
       </c>
@@ -7799,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>576</v>
       </c>
@@ -7807,7 +7813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>577</v>
       </c>
@@ -7815,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>578</v>
       </c>
@@ -7823,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>579</v>
       </c>
@@ -7831,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>580</v>
       </c>
@@ -7839,7 +7845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>581</v>
       </c>
@@ -7847,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>582</v>
       </c>
@@ -7855,7 +7861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>583</v>
       </c>
@@ -7863,7 +7869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>584</v>
       </c>
@@ -7871,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>585</v>
       </c>
@@ -7879,7 +7885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>586</v>
       </c>
@@ -7887,7 +7893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>587</v>
       </c>
@@ -7895,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>588</v>
       </c>
@@ -7903,7 +7909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>589</v>
       </c>
@@ -7911,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>590</v>
       </c>
@@ -7919,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>591</v>
       </c>
@@ -7927,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>592</v>
       </c>
@@ -7935,7 +7941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>593</v>
       </c>
@@ -7943,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>594</v>
       </c>
@@ -7951,7 +7957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>595</v>
       </c>
@@ -7959,7 +7965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>596</v>
       </c>
@@ -7967,7 +7973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>597</v>
       </c>
@@ -7975,7 +7981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>598</v>
       </c>
@@ -7983,7 +7989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>599</v>
       </c>
@@ -7991,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>600</v>
       </c>
@@ -7999,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>601</v>
       </c>
@@ -8007,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>602</v>
       </c>
@@ -8015,7 +8021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>603</v>
       </c>
@@ -8023,7 +8029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>604</v>
       </c>
@@ -8031,7 +8037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>605</v>
       </c>
@@ -8039,7 +8045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>606</v>
       </c>
@@ -8047,7 +8053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>607</v>
       </c>
@@ -8055,7 +8061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>608</v>
       </c>
@@ -8063,7 +8069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>609</v>
       </c>
@@ -8071,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>610</v>
       </c>
@@ -8079,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>611</v>
       </c>
@@ -8087,7 +8093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>612</v>
       </c>
@@ -8095,7 +8101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>613</v>
       </c>
@@ -8103,7 +8109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>614</v>
       </c>
@@ -8111,7 +8117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>615</v>
       </c>
@@ -8119,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>616</v>
       </c>
@@ -8127,7 +8133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>617</v>
       </c>
@@ -8135,7 +8141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>618</v>
       </c>
@@ -8143,7 +8149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>619</v>
       </c>
@@ -8151,7 +8157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>620</v>
       </c>
@@ -8159,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>621</v>
       </c>
@@ -8167,7 +8173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>622</v>
       </c>
@@ -8175,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>623</v>
       </c>
@@ -8183,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>624</v>
       </c>
@@ -8191,7 +8197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>625</v>
       </c>
@@ -8199,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>626</v>
       </c>
@@ -8207,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>627</v>
       </c>
@@ -8215,7 +8221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>628</v>
       </c>
@@ -8223,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>629</v>
       </c>
@@ -8231,7 +8237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>630</v>
       </c>
@@ -8239,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>631</v>
       </c>
@@ -8247,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>632</v>
       </c>
@@ -8255,7 +8261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>633</v>
       </c>
@@ -8263,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>634</v>
       </c>
@@ -8271,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>635</v>
       </c>
@@ -8279,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>636</v>
       </c>
@@ -8287,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>637</v>
       </c>
@@ -8295,7 +8301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>638</v>
       </c>
@@ -8303,7 +8309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>639</v>
       </c>
@@ -8311,7 +8317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>640</v>
       </c>
@@ -8319,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>641</v>
       </c>
@@ -8327,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>642</v>
       </c>
@@ -8335,7 +8341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>643</v>
       </c>
@@ -8343,7 +8349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>644</v>
       </c>
@@ -8351,7 +8357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>645</v>
       </c>
@@ -8359,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>646</v>
       </c>
@@ -8367,7 +8373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>647</v>
       </c>
@@ -8375,7 +8381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>648</v>
       </c>
@@ -8383,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>649</v>
       </c>
@@ -8391,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>650</v>
       </c>
@@ -8399,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>651</v>
       </c>
@@ -8407,7 +8413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>652</v>
       </c>
@@ -8415,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>653</v>
       </c>
@@ -8423,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>654</v>
       </c>
@@ -8431,7 +8437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>655</v>
       </c>
@@ -8439,7 +8445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>656</v>
       </c>
@@ -8447,12 +8453,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B157" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>657</v>
       </c>
@@ -8460,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>658</v>
       </c>
@@ -8468,7 +8474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>659</v>
       </c>
@@ -8476,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>660</v>
       </c>
@@ -8484,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>661</v>
       </c>
@@ -8492,7 +8498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>662</v>
       </c>
@@ -8500,7 +8506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>663</v>
       </c>
@@ -8508,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>664</v>
       </c>
@@ -8516,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>665</v>
       </c>
@@ -8524,7 +8530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>666</v>
       </c>
@@ -8532,7 +8538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>667</v>
       </c>
@@ -8540,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>668</v>
       </c>
@@ -8548,7 +8554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>669</v>
       </c>
@@ -8556,7 +8562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>670</v>
       </c>
@@ -8564,7 +8570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>671</v>
       </c>
@@ -8572,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>672</v>
       </c>
@@ -8580,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>673</v>
       </c>
@@ -8588,7 +8594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>674</v>
       </c>
@@ -8596,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>675</v>
       </c>
@@ -8604,7 +8610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>676</v>
       </c>
@@ -8612,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>677</v>
       </c>
@@ -8620,7 +8626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>678</v>
       </c>
@@ -8628,7 +8634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>679</v>
       </c>
@@ -8636,7 +8642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>680</v>
       </c>
@@ -8644,7 +8650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>681</v>
       </c>
@@ -8652,7 +8658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>682</v>
       </c>
@@ -8660,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>683</v>
       </c>
@@ -8668,7 +8674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>684</v>
       </c>
@@ -8676,7 +8682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>685</v>
       </c>
@@ -8684,7 +8690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>686</v>
       </c>
@@ -8692,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>687</v>
       </c>
@@ -8700,7 +8706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>688</v>
       </c>
@@ -8708,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>689</v>
       </c>
@@ -8716,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>690</v>
       </c>
@@ -8724,7 +8730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>691</v>
       </c>
@@ -8732,7 +8738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>692</v>
       </c>
@@ -8740,7 +8746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>693</v>
       </c>
@@ -8748,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>694</v>
       </c>
@@ -8756,7 +8762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>695</v>
       </c>
@@ -8764,7 +8770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>696</v>
       </c>
@@ -8772,7 +8778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>697</v>
       </c>
@@ -8780,7 +8786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>698</v>
       </c>
@@ -8788,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>699</v>
       </c>
@@ -8796,7 +8802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>700</v>
       </c>
@@ -8804,7 +8810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>701</v>
       </c>
@@ -8812,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>702</v>
       </c>
@@ -8820,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>703</v>
       </c>
@@ -8828,7 +8834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>704</v>
       </c>
@@ -8836,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>705</v>
       </c>
@@ -8844,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>706</v>
       </c>
@@ -8852,7 +8858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>707</v>
       </c>
@@ -8860,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>708</v>
       </c>
@@ -8868,7 +8874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>709</v>
       </c>
@@ -8876,7 +8882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>710</v>
       </c>
@@ -8884,7 +8890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>711</v>
       </c>
@@ -8892,7 +8898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>712</v>
       </c>
@@ -8900,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>713</v>
       </c>
@@ -8908,7 +8914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>714</v>
       </c>
@@ -8916,7 +8922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>715</v>
       </c>
@@ -8924,7 +8930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>716</v>
       </c>
@@ -8932,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>717</v>
       </c>
@@ -8940,7 +8946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>718</v>
       </c>
@@ -8948,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>719</v>
       </c>
@@ -8956,7 +8962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>720</v>
       </c>
@@ -8964,7 +8970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>721</v>
       </c>
@@ -8972,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>722</v>
       </c>
@@ -8980,7 +8986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>723</v>
       </c>
@@ -8988,7 +8994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>724</v>
       </c>
@@ -8996,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>725</v>
       </c>
@@ -9004,7 +9010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>726</v>
       </c>
@@ -9012,7 +9018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>727</v>
       </c>
@@ -9020,7 +9026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>728</v>
       </c>
@@ -9028,7 +9034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>729</v>
       </c>
@@ -9036,7 +9042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>730</v>
       </c>
@@ -9044,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>731</v>
       </c>
@@ -9052,7 +9058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>732</v>
       </c>
@@ -9060,7 +9066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>733</v>
       </c>
@@ -9068,7 +9074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>734</v>
       </c>
@@ -9076,7 +9082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>735</v>
       </c>
@@ -9084,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>736</v>
       </c>
@@ -9092,7 +9098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>737</v>
       </c>
@@ -9100,7 +9106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>738</v>
       </c>
@@ -9108,7 +9114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>739</v>
       </c>
@@ -9116,7 +9122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>740</v>
       </c>
@@ -9124,7 +9130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>741</v>
       </c>
@@ -9132,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>742</v>
       </c>
@@ -9140,7 +9146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>743</v>
       </c>
@@ -9148,7 +9154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>744</v>
       </c>
@@ -9156,7 +9162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>745</v>
       </c>
@@ -9164,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>746</v>
       </c>
@@ -9172,7 +9178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>747</v>
       </c>
@@ -9180,7 +9186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>748</v>
       </c>
@@ -9188,7 +9194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>749</v>
       </c>
@@ -9196,7 +9202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>750</v>
       </c>
@@ -9204,7 +9210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>751</v>
       </c>
@@ -9212,7 +9218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>752</v>
       </c>
@@ -9220,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>753</v>
       </c>
@@ -9228,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>754</v>
       </c>
@@ -9236,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>755</v>
       </c>
@@ -9244,7 +9250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>756</v>
       </c>
@@ -9252,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>757</v>
       </c>
@@ -9260,7 +9266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>758</v>
       </c>
@@ -9268,7 +9274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>759</v>
       </c>
@@ -9276,7 +9282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>760</v>
       </c>
@@ -9284,7 +9290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>761</v>
       </c>
@@ -9292,7 +9298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>762</v>
       </c>
@@ -9300,7 +9306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>763</v>
       </c>
@@ -9308,7 +9314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>764</v>
       </c>
@@ -9316,7 +9322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>765</v>
       </c>
@@ -9324,7 +9330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>766</v>
       </c>
@@ -9332,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>767</v>
       </c>
@@ -9340,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>768</v>
       </c>
@@ -9348,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>769</v>
       </c>
@@ -9356,7 +9362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>770</v>
       </c>
@@ -9364,7 +9370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>771</v>
       </c>
@@ -9372,7 +9378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>772</v>
       </c>
@@ -9380,7 +9386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>773</v>
       </c>
@@ -9388,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>774</v>
       </c>
@@ -9396,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>775</v>
       </c>
@@ -9404,7 +9410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>776</v>
       </c>
@@ -9412,7 +9418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>777</v>
       </c>
@@ -9420,7 +9426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>778</v>
       </c>
@@ -9428,7 +9434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>779</v>
       </c>
@@ -9436,7 +9442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>780</v>
       </c>
@@ -9444,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>781</v>
       </c>
@@ -9452,7 +9458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>782</v>
       </c>
@@ -9460,7 +9466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>783</v>
       </c>
@@ -9468,7 +9474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>784</v>
       </c>
@@ -9476,7 +9482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>785</v>
       </c>
@@ -9484,7 +9490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>786</v>
       </c>
@@ -9492,7 +9498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>787</v>
       </c>
@@ -9500,7 +9506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>788</v>
       </c>
@@ -9508,7 +9514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>789</v>
       </c>
@@ -9516,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>790</v>
       </c>
@@ -9524,7 +9530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>791</v>
       </c>
@@ -9532,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>792</v>
       </c>
@@ -9540,7 +9546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>793</v>
       </c>
@@ -9548,7 +9554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>794</v>
       </c>
@@ -9556,7 +9562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>795</v>
       </c>
@@ -9564,7 +9570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>796</v>
       </c>
@@ -9572,7 +9578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>797</v>
       </c>
@@ -9580,7 +9586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>798</v>
       </c>
@@ -9588,7 +9594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>799</v>
       </c>
@@ -9596,7 +9602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>800</v>
       </c>
@@ -9604,40 +9610,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B302" s="4"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B303" s="4"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B304" s="4"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B305" s="4"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B306" s="4"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B307" s="4"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B308" s="4"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B309" s="4"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B310" s="4"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B311" s="4"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B312" s="4"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B313" s="4"/>
     </row>
   </sheetData>

--- a/NetflixNrt.xlsx
+++ b/NetflixNrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\insper\projeto2-cdados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\projeto2-cdados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ED44A1-B2A5-4CE2-B9A0-BE214437269F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B377E9B-A67A-4F2B-8F44-B447DBFB0619}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3120" yWindow="2316" windowWidth="23040" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="804">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2756,6 +2756,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -3170,17 +3173,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
+    <sheetView topLeftCell="A422" workbookViewId="0">
       <selection activeCell="D447" sqref="D447"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3188,7 +3191,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3212,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3220,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3268,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3276,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3292,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3308,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3316,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3340,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3356,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3396,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3420,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3436,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3444,7 +3447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3452,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3476,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3500,7 +3503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3516,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3532,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3548,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3556,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3564,7 +3567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3572,7 +3575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3580,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3596,7 +3599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3604,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3620,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3636,7 +3639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3660,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3676,7 +3679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3684,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3692,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3700,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3708,7 +3711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3716,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3724,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3740,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3748,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3772,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3780,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3788,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3796,7 +3799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3804,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3812,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3820,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3836,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3844,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3860,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3892,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3900,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3908,7 +3911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3916,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3924,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3940,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3956,7 +3959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3964,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3972,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3980,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3988,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3996,7 +3999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -4004,7 +4007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4012,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -4028,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -4036,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -4060,7 +4063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -4068,7 +4071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -4076,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -4084,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -4100,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -4108,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -4116,7 +4119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -4124,7 +4127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -4140,7 +4143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -4180,7 +4183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -4196,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -4204,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -4212,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -4220,7 +4223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -4228,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4244,7 +4247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4252,7 +4255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -4260,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -4268,7 +4271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -4300,7 +4303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -4308,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -4316,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -4332,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -4340,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -4348,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -4356,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -4372,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -4380,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -4388,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -4396,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4420,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4436,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4444,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4460,7 +4463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4468,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4476,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4492,7 +4495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4508,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4516,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4524,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4540,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4556,7 +4559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4564,7 +4567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4572,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4580,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4596,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -4604,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4612,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4620,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4628,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4636,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -4644,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -4660,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -4668,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -4692,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -4700,7 +4703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -4708,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -4716,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -4732,7 +4735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -4740,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -4748,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -4756,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -4764,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -4772,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -4780,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -4788,7 +4791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -4796,7 +4799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -4828,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -4836,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -4852,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -4868,7 +4871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -4876,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -4884,7 +4887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -4892,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -4908,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -4916,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -4924,7 +4927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -4932,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -4940,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -4972,7 +4975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -4980,7 +4983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -4996,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -5004,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -5012,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -5020,7 +5023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -5028,7 +5031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -5036,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -5044,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -5060,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -5068,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -5076,7 +5079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -5092,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -5100,7 +5103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -5108,7 +5111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -5116,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -5124,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -5132,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -5148,7 +5151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -5156,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -5164,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -5172,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -5180,7 +5183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -5188,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -5196,7 +5199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -5212,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -5220,7 +5223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -5236,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -5244,7 +5247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -5252,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -5260,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -5276,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -5284,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -5300,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -5308,7 +5311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -5324,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -5332,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -5340,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -5356,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -5364,7 +5367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -5372,7 +5375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -5380,7 +5383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -5396,7 +5399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -5404,7 +5407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -5420,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -5428,7 +5431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -5436,7 +5439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -5460,7 +5463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -5476,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -5484,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -5492,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -5500,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -5516,7 +5519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -5532,7 +5535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -5548,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -5556,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -5572,7 +5575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -5580,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -5588,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -5604,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -5612,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -5620,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -5628,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -5644,7 +5647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -5652,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -5660,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -5668,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -5684,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -5700,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -5708,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -5716,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -5732,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -5740,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -5748,7 +5751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -5756,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -5764,7 +5767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -5772,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -5788,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -5804,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -5820,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -5828,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -5836,7 +5839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -5844,7 +5847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -5852,7 +5855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -5860,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -5868,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -5876,7 +5879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -5884,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -5892,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -5900,7 +5903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -5916,7 +5919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -5924,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -5932,7 +5935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -5940,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -5948,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -5956,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -5964,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -5972,7 +5975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -5980,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -5988,7 +5991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -6004,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -6028,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -6036,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -6052,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -6060,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -6068,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -6076,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -6092,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -6100,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -6108,7 +6111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -6116,7 +6119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -6132,7 +6135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -6140,7 +6143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -6148,7 +6151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -6156,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -6164,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -6172,7 +6175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -6188,7 +6191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -6196,7 +6199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -6204,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -6212,7 +6215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -6220,7 +6223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -6236,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -6244,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -6252,7 +6255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -6260,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -6268,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -6276,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -6284,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -6292,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -6300,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -6324,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -6340,7 +6343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -6356,7 +6359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -6364,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -6372,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -6380,7 +6383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -6396,7 +6399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -6404,7 +6407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -6412,7 +6415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -6420,7 +6423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -6428,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -6436,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -6444,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -6460,7 +6463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -6468,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -6484,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>413</v>
       </c>
@@ -6492,7 +6495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -6500,7 +6503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -6508,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -6516,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -6524,7 +6527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -6532,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -6540,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -6548,7 +6551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -6556,7 +6559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -6572,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -6580,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -6588,7 +6591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>426</v>
       </c>
@@ -6596,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -6604,7 +6607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -6612,7 +6615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -6620,7 +6623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -6628,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -6636,7 +6639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -6644,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -6652,7 +6655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -6660,7 +6663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -6668,7 +6671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -6676,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -6684,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -6692,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -6700,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>440</v>
       </c>
@@ -6708,7 +6711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -6716,7 +6719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -6732,7 +6735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -6740,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -6748,7 +6751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -6759,7 +6762,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -6767,7 +6770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -6775,7 +6778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -6783,7 +6786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -6791,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>451</v>
       </c>
@@ -6799,7 +6802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>452</v>
       </c>
@@ -6807,7 +6810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>453</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>454</v>
       </c>
@@ -6823,7 +6826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>455</v>
       </c>
@@ -6831,7 +6834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>456</v>
       </c>
@@ -6839,7 +6842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>457</v>
       </c>
@@ -6847,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>458</v>
       </c>
@@ -6855,7 +6858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>459</v>
       </c>
@@ -6863,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>460</v>
       </c>
@@ -6871,7 +6874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>461</v>
       </c>
@@ -6879,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>462</v>
       </c>
@@ -6887,7 +6890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>463</v>
       </c>
@@ -6895,7 +6898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>464</v>
       </c>
@@ -6903,7 +6906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>465</v>
       </c>
@@ -6911,7 +6914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>466</v>
       </c>
@@ -6919,7 +6922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>467</v>
       </c>
@@ -6927,7 +6930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>468</v>
       </c>
@@ -6935,7 +6938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>469</v>
       </c>
@@ -6943,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>470</v>
       </c>
@@ -6951,7 +6954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>471</v>
       </c>
@@ -6959,7 +6962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>472</v>
       </c>
@@ -6967,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>473</v>
       </c>
@@ -6975,7 +6978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>474</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>475</v>
       </c>
@@ -6991,7 +6994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>476</v>
       </c>
@@ -6999,7 +7002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>477</v>
       </c>
@@ -7007,7 +7010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>478</v>
       </c>
@@ -7015,7 +7018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>479</v>
       </c>
@@ -7023,7 +7026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>480</v>
       </c>
@@ -7031,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -7039,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>482</v>
       </c>
@@ -7047,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>483</v>
       </c>
@@ -7055,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>484</v>
       </c>
@@ -7063,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>485</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>486</v>
       </c>
@@ -7079,7 +7082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>487</v>
       </c>
@@ -7087,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>488</v>
       </c>
@@ -7095,7 +7098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>489</v>
       </c>
@@ -7103,7 +7106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>490</v>
       </c>
@@ -7111,7 +7114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>491</v>
       </c>
@@ -7120,7 +7123,7 @@
       </c>
       <c r="L492" s="3"/>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -7128,7 +7131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>493</v>
       </c>
@@ -7136,7 +7139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>494</v>
       </c>
@@ -7144,7 +7147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>495</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>496</v>
       </c>
@@ -7160,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>497</v>
       </c>
@@ -7168,7 +7171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>498</v>
       </c>
@@ -7176,7 +7179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>499</v>
       </c>
@@ -7184,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>500</v>
       </c>
@@ -7202,18 +7205,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="E307" sqref="E307"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>502</v>
       </c>
@@ -7221,7 +7227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>503</v>
       </c>
@@ -7229,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>504</v>
       </c>
@@ -7237,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>505</v>
       </c>
@@ -7245,7 +7251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>506</v>
       </c>
@@ -7253,7 +7259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>507</v>
       </c>
@@ -7261,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>508</v>
       </c>
@@ -7269,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>509</v>
       </c>
@@ -7277,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>510</v>
       </c>
@@ -7285,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>511</v>
       </c>
@@ -7293,7 +7299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>512</v>
       </c>
@@ -7301,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -7309,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>514</v>
       </c>
@@ -7317,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>515</v>
       </c>
@@ -7325,7 +7331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>516</v>
       </c>
@@ -7333,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>517</v>
       </c>
@@ -7341,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>518</v>
       </c>
@@ -7349,7 +7355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>519</v>
       </c>
@@ -7357,7 +7363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>520</v>
       </c>
@@ -7365,7 +7371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>521</v>
       </c>
@@ -7373,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>522</v>
       </c>
@@ -7381,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>523</v>
       </c>
@@ -7389,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>524</v>
       </c>
@@ -7397,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>525</v>
       </c>
@@ -7405,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>526</v>
       </c>
@@ -7413,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>527</v>
       </c>
@@ -7421,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>528</v>
       </c>
@@ -7429,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>529</v>
       </c>
@@ -7437,7 +7443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>530</v>
       </c>
@@ -7445,7 +7451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>531</v>
       </c>
@@ -7453,7 +7459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>532</v>
       </c>
@@ -7461,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>533</v>
       </c>
@@ -7469,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>534</v>
       </c>
@@ -7477,7 +7483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>535</v>
       </c>
@@ -7485,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>536</v>
       </c>
@@ -7493,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>537</v>
       </c>
@@ -7501,7 +7507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>538</v>
       </c>
@@ -7509,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>539</v>
       </c>
@@ -7517,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>540</v>
       </c>
@@ -7525,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>541</v>
       </c>
@@ -7533,7 +7539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>542</v>
       </c>
@@ -7541,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>543</v>
       </c>
@@ -7549,7 +7555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>544</v>
       </c>
@@ -7557,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>545</v>
       </c>
@@ -7565,7 +7571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>546</v>
       </c>
@@ -7573,7 +7579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>547</v>
       </c>
@@ -7581,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>548</v>
       </c>
@@ -7589,7 +7595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>549</v>
       </c>
@@ -7597,7 +7603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>550</v>
       </c>
@@ -7605,7 +7611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>551</v>
       </c>
@@ -7613,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>552</v>
       </c>
@@ -7621,7 +7627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>553</v>
       </c>
@@ -7629,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>554</v>
       </c>
@@ -7637,7 +7643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>555</v>
       </c>
@@ -7645,7 +7651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>556</v>
       </c>
@@ -7653,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>557</v>
       </c>
@@ -7661,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>558</v>
       </c>
@@ -7669,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>559</v>
       </c>
@@ -7677,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>560</v>
       </c>
@@ -7685,7 +7691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>561</v>
       </c>
@@ -7693,7 +7699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>562</v>
       </c>
@@ -7701,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>563</v>
       </c>
@@ -7709,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>564</v>
       </c>
@@ -7717,7 +7723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>565</v>
       </c>
@@ -7725,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>566</v>
       </c>
@@ -7733,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>567</v>
       </c>
@@ -7741,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>568</v>
       </c>
@@ -7749,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>569</v>
       </c>
@@ -7757,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>570</v>
       </c>
@@ -7765,7 +7771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>571</v>
       </c>
@@ -7773,7 +7779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>572</v>
       </c>
@@ -7781,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>573</v>
       </c>
@@ -7789,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>574</v>
       </c>
@@ -7797,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>575</v>
       </c>
@@ -7805,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>576</v>
       </c>
@@ -7813,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>577</v>
       </c>
@@ -7821,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>578</v>
       </c>
@@ -7829,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>579</v>
       </c>
@@ -7837,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>580</v>
       </c>
@@ -7845,7 +7851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>581</v>
       </c>
@@ -7853,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>582</v>
       </c>
@@ -7861,7 +7867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>583</v>
       </c>
@@ -7869,7 +7875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>584</v>
       </c>
@@ -7877,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>585</v>
       </c>
@@ -7885,7 +7891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>586</v>
       </c>
@@ -7893,7 +7899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>587</v>
       </c>
@@ -7901,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>588</v>
       </c>
@@ -7909,7 +7915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>589</v>
       </c>
@@ -7917,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>590</v>
       </c>
@@ -7925,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>591</v>
       </c>
@@ -7933,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>592</v>
       </c>
@@ -7941,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>593</v>
       </c>
@@ -7949,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>594</v>
       </c>
@@ -7957,7 +7963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>595</v>
       </c>
@@ -7965,7 +7971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>596</v>
       </c>
@@ -7973,7 +7979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>597</v>
       </c>
@@ -7981,7 +7987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>598</v>
       </c>
@@ -7989,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>599</v>
       </c>
@@ -7997,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>600</v>
       </c>
@@ -8005,7 +8011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>601</v>
       </c>
@@ -8013,7 +8019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>602</v>
       </c>
@@ -8021,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>603</v>
       </c>
@@ -8029,7 +8035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>604</v>
       </c>
@@ -8037,7 +8043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>605</v>
       </c>
@@ -8045,7 +8051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>606</v>
       </c>
@@ -8053,7 +8059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>607</v>
       </c>
@@ -8061,7 +8067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>608</v>
       </c>
@@ -8069,7 +8075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>609</v>
       </c>
@@ -8077,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>610</v>
       </c>
@@ -8085,7 +8091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>611</v>
       </c>
@@ -8093,7 +8099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>612</v>
       </c>
@@ -8101,7 +8107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>613</v>
       </c>
@@ -8109,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>614</v>
       </c>
@@ -8117,7 +8123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>615</v>
       </c>
@@ -8125,7 +8131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>616</v>
       </c>
@@ -8133,7 +8139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>617</v>
       </c>
@@ -8141,7 +8147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>618</v>
       </c>
@@ -8149,7 +8155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>619</v>
       </c>
@@ -8157,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>620</v>
       </c>
@@ -8165,7 +8171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>621</v>
       </c>
@@ -8173,7 +8179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>622</v>
       </c>
@@ -8181,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>623</v>
       </c>
@@ -8189,7 +8195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>624</v>
       </c>
@@ -8197,7 +8203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>625</v>
       </c>
@@ -8205,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>626</v>
       </c>
@@ -8213,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>627</v>
       </c>
@@ -8221,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>628</v>
       </c>
@@ -8229,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>629</v>
       </c>
@@ -8237,7 +8243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>630</v>
       </c>
@@ -8245,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>631</v>
       </c>
@@ -8253,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>632</v>
       </c>
@@ -8261,7 +8267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>633</v>
       </c>
@@ -8269,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>634</v>
       </c>
@@ -8277,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>635</v>
       </c>
@@ -8285,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>636</v>
       </c>
@@ -8293,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>637</v>
       </c>
@@ -8301,7 +8307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>638</v>
       </c>
@@ -8309,7 +8315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>639</v>
       </c>
@@ -8317,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>640</v>
       </c>
@@ -8325,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>641</v>
       </c>
@@ -8333,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>642</v>
       </c>
@@ -8341,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>643</v>
       </c>
@@ -8349,7 +8355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>644</v>
       </c>
@@ -8357,7 +8363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>645</v>
       </c>
@@ -8365,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>646</v>
       </c>
@@ -8373,7 +8379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>647</v>
       </c>
@@ -8381,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>648</v>
       </c>
@@ -8389,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>649</v>
       </c>
@@ -8397,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>650</v>
       </c>
@@ -8405,7 +8411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>651</v>
       </c>
@@ -8413,7 +8419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>652</v>
       </c>
@@ -8421,7 +8427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>653</v>
       </c>
@@ -8429,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>654</v>
       </c>
@@ -8437,7 +8443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>655</v>
       </c>
@@ -8445,7 +8451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>656</v>
       </c>
@@ -8453,12 +8459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B157" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>657</v>
       </c>
@@ -8466,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>658</v>
       </c>
@@ -8474,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>659</v>
       </c>
@@ -8482,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>660</v>
       </c>
@@ -8490,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>661</v>
       </c>
@@ -8498,7 +8504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>662</v>
       </c>
@@ -8506,7 +8512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>663</v>
       </c>
@@ -8514,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>664</v>
       </c>
@@ -8522,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>665</v>
       </c>
@@ -8530,7 +8536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>666</v>
       </c>
@@ -8538,7 +8544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>667</v>
       </c>
@@ -8546,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>668</v>
       </c>
@@ -8554,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>669</v>
       </c>
@@ -8562,7 +8568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>670</v>
       </c>
@@ -8570,7 +8576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>671</v>
       </c>
@@ -8578,7 +8584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>672</v>
       </c>
@@ -8586,7 +8592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>673</v>
       </c>
@@ -8594,7 +8600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>674</v>
       </c>
@@ -8602,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>675</v>
       </c>
@@ -8610,7 +8616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>676</v>
       </c>
@@ -8618,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>677</v>
       </c>
@@ -8626,7 +8632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>678</v>
       </c>
@@ -8634,31 +8640,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>679</v>
       </c>
-      <c r="B180" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>680</v>
       </c>
       <c r="B181" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>681</v>
       </c>
       <c r="B182" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>682</v>
       </c>
@@ -8666,55 +8672,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>683</v>
       </c>
       <c r="B184" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>684</v>
       </c>
       <c r="B185" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>685</v>
       </c>
       <c r="B186" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>686</v>
       </c>
       <c r="B187" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>687</v>
       </c>
       <c r="B188" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>688</v>
       </c>
       <c r="B189" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>689</v>
       </c>
@@ -8722,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>690</v>
       </c>
@@ -8730,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>691</v>
       </c>
@@ -8738,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>692</v>
       </c>
@@ -8746,7 +8752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>693</v>
       </c>
@@ -8754,7 +8760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>694</v>
       </c>
@@ -8762,23 +8768,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>695</v>
       </c>
       <c r="B196" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>696</v>
       </c>
       <c r="B197" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>697</v>
       </c>
@@ -8786,79 +8792,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>698</v>
       </c>
       <c r="B199" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>699</v>
       </c>
       <c r="B200" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>700</v>
       </c>
       <c r="B201" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>701</v>
       </c>
       <c r="B202" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>702</v>
       </c>
       <c r="B203" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>703</v>
       </c>
       <c r="B204" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>704</v>
       </c>
       <c r="B205" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>705</v>
       </c>
       <c r="B206" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>706</v>
       </c>
       <c r="B207" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>707</v>
       </c>
@@ -8866,23 +8872,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>708</v>
       </c>
       <c r="B209" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>709</v>
       </c>
       <c r="B210" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>710</v>
       </c>
@@ -8890,23 +8896,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>711</v>
       </c>
       <c r="B212" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>712</v>
       </c>
       <c r="B213" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>713</v>
       </c>
@@ -8914,15 +8920,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>714</v>
       </c>
       <c r="B215" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>715</v>
       </c>
@@ -8930,7 +8936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>716</v>
       </c>
@@ -8938,15 +8944,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>717</v>
       </c>
       <c r="B218" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>718</v>
       </c>
@@ -8954,15 +8960,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>719</v>
       </c>
       <c r="B220" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>720</v>
       </c>
@@ -8970,39 +8976,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>721</v>
       </c>
       <c r="B222" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>722</v>
       </c>
       <c r="B223" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>723</v>
       </c>
       <c r="B224" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>724</v>
       </c>
       <c r="B225" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>725</v>
       </c>
@@ -9010,31 +9016,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>726</v>
       </c>
       <c r="B227" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>727</v>
       </c>
       <c r="B228" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>728</v>
       </c>
       <c r="B229" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>729</v>
       </c>
@@ -9042,63 +9048,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>730</v>
       </c>
       <c r="B231" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>731</v>
       </c>
       <c r="B232" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>732</v>
       </c>
       <c r="B233" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>733</v>
       </c>
       <c r="B234" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>734</v>
       </c>
       <c r="B235" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>735</v>
       </c>
       <c r="B236" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>736</v>
       </c>
       <c r="B237" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>737</v>
       </c>
@@ -9106,23 +9112,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>738</v>
       </c>
       <c r="B239" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>739</v>
       </c>
       <c r="B240" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>740</v>
       </c>
@@ -9130,23 +9136,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>741</v>
       </c>
       <c r="B242" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>742</v>
       </c>
       <c r="B243" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>743</v>
       </c>
@@ -9154,7 +9160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>744</v>
       </c>
@@ -9162,15 +9168,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>745</v>
       </c>
       <c r="B246" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>746</v>
       </c>
@@ -9178,15 +9184,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>747</v>
       </c>
       <c r="B248" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>748</v>
       </c>
@@ -9194,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>749</v>
       </c>
@@ -9202,39 +9208,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>750</v>
       </c>
       <c r="B251" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>751</v>
       </c>
       <c r="B252" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>752</v>
       </c>
       <c r="B253" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>753</v>
       </c>
       <c r="B254" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>754</v>
       </c>
@@ -9242,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>755</v>
       </c>
@@ -9250,7 +9256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>756</v>
       </c>
@@ -9258,7 +9264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>757</v>
       </c>
@@ -9266,31 +9272,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>758</v>
       </c>
       <c r="B259" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>759</v>
       </c>
       <c r="B260" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>760</v>
       </c>
       <c r="B261" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>761</v>
       </c>
@@ -9298,39 +9304,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>762</v>
       </c>
       <c r="B263" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>763</v>
       </c>
       <c r="B264" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>764</v>
       </c>
       <c r="B265" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>765</v>
       </c>
       <c r="B266" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>766</v>
       </c>
@@ -9338,47 +9344,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>767</v>
       </c>
       <c r="B268" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>768</v>
       </c>
       <c r="B269" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>769</v>
       </c>
       <c r="B270" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>770</v>
       </c>
       <c r="B271" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>771</v>
       </c>
       <c r="B272" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>772</v>
       </c>
@@ -9386,47 +9392,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>773</v>
       </c>
       <c r="B274" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>774</v>
       </c>
       <c r="B275" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>775</v>
       </c>
       <c r="B276" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>776</v>
       </c>
       <c r="B277" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>777</v>
       </c>
       <c r="B278" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>778</v>
       </c>
@@ -9434,7 +9440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>779</v>
       </c>
@@ -9442,7 +9448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>780</v>
       </c>
@@ -9450,7 +9456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>781</v>
       </c>
@@ -9458,7 +9464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>782</v>
       </c>
@@ -9466,31 +9472,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>783</v>
       </c>
       <c r="B284" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>784</v>
       </c>
       <c r="B285" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>785</v>
       </c>
       <c r="B286" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>786</v>
       </c>
@@ -9498,7 +9504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>787</v>
       </c>
@@ -9506,15 +9512,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>788</v>
       </c>
       <c r="B289" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>789</v>
       </c>
@@ -9522,15 +9528,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>790</v>
       </c>
       <c r="B291" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>791</v>
       </c>
@@ -9538,15 +9544,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>792</v>
       </c>
       <c r="B293" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>793</v>
       </c>
@@ -9554,15 +9560,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>794</v>
       </c>
       <c r="B295" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>795</v>
       </c>
@@ -9570,7 +9576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>796</v>
       </c>
@@ -9578,75 +9584,76 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>797</v>
       </c>
       <c r="B298" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>798</v>
       </c>
       <c r="B299" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>799</v>
       </c>
       <c r="B300" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>800</v>
       </c>
       <c r="B301" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B302" s="4"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B303" s="4"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B304" s="4"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" s="4"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306" s="4"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" s="4"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" s="4"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" s="4"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" s="4"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" s="4"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" s="4"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NetflixNrt.xlsx
+++ b/NetflixNrt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\projeto2-cdados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B377E9B-A67A-4F2B-8F44-B447DBFB0619}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5238945E-30D0-4AD6-A447-95ED6EB5083E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="803">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2756,9 +2756,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -3173,7 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L501"/>
   <sheetViews>
-    <sheetView topLeftCell="A422" workbookViewId="0">
+    <sheetView topLeftCell="A470" workbookViewId="0">
       <selection activeCell="D447" sqref="D447"/>
     </sheetView>
   </sheetViews>
@@ -7205,8 +7202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7500,7 +7497,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>537</v>
       </c>
       <c r="B37" s="4">
@@ -8152,7 +8149,7 @@
         <v>618</v>
       </c>
       <c r="B118" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -8160,7 +8157,7 @@
         <v>619</v>
       </c>
       <c r="B119" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -8176,7 +8173,7 @@
         <v>621</v>
       </c>
       <c r="B121" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -8184,7 +8181,7 @@
         <v>622</v>
       </c>
       <c r="B122" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -8192,7 +8189,7 @@
         <v>623</v>
       </c>
       <c r="B123" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -8200,7 +8197,7 @@
         <v>624</v>
       </c>
       <c r="B124" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -8208,7 +8205,7 @@
         <v>625</v>
       </c>
       <c r="B125" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -8224,7 +8221,7 @@
         <v>627</v>
       </c>
       <c r="B127" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -8240,7 +8237,7 @@
         <v>629</v>
       </c>
       <c r="B129" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -8248,7 +8245,7 @@
         <v>630</v>
       </c>
       <c r="B130" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -8288,7 +8285,7 @@
         <v>635</v>
       </c>
       <c r="B135" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -8304,7 +8301,7 @@
         <v>637</v>
       </c>
       <c r="B137" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -8637,15 +8634,15 @@
         <v>678</v>
       </c>
       <c r="B179" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>679</v>
       </c>
-      <c r="B180" s="4" t="s">
-        <v>803</v>
+      <c r="B180" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
